--- a/アルバム更新・削除_単体テスト.xlsx
+++ b/アルバム更新・削除_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F20776BC-A388-4DE7-A9BC-71D31FB8D16C}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7047A7-346F-4254-B91D-3663665D9BDE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アルバム更新画面" sheetId="5" r:id="rId1"/>
@@ -3979,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3991,7 +3991,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4031,7 +4031,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4086,7 +4086,7 @@
         <v>102</v>
       </c>
       <c r="G8" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -4124,7 +4124,7 @@
         <v>155</v>
       </c>
       <c r="G10" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>63</v>
@@ -4162,7 +4162,7 @@
         <v>129</v>
       </c>
       <c r="G12" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
@@ -4200,7 +4200,7 @@
         <v>156</v>
       </c>
       <c r="G14" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>63</v>
@@ -4236,7 +4236,7 @@
         <v>157</v>
       </c>
       <c r="G16" s="3">
-        <v>45998</v>
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>63</v>
@@ -4272,7 +4272,7 @@
         <v>62</v>
       </c>
       <c r="G18" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>63</v>
@@ -4310,7 +4310,7 @@
         <v>148</v>
       </c>
       <c r="G20" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>63</v>
@@ -4348,7 +4348,7 @@
         <v>152</v>
       </c>
       <c r="G22" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>63</v>
@@ -4384,7 +4384,7 @@
         <v>144</v>
       </c>
       <c r="G24" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>63</v>
@@ -4420,7 +4420,7 @@
         <v>145</v>
       </c>
       <c r="G26" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>63</v>
@@ -4456,7 +4456,7 @@
         <v>150</v>
       </c>
       <c r="G28" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>63</v>
@@ -4492,7 +4492,7 @@
         <v>154</v>
       </c>
       <c r="G30" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>63</v>
@@ -5566,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5578,7 +5578,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5618,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5673,7 +5673,7 @@
         <v>121</v>
       </c>
       <c r="G8" s="3">
-        <v>45998</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -5724,7 +5724,7 @@
         <v>125</v>
       </c>
       <c r="G11" s="3">
-        <v>45998</v>
+        <v>46016</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>63</v>
@@ -5775,10 +5775,10 @@
         <v>88</v>
       </c>
       <c r="G14" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -5826,7 +5826,7 @@
         <v>132</v>
       </c>
       <c r="G17" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
@@ -5877,7 +5877,7 @@
         <v>118</v>
       </c>
       <c r="G20" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>63</v>
@@ -5930,7 +5930,7 @@
         <v>116</v>
       </c>
       <c r="G23" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>63</v>
@@ -5980,8 +5980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5992,7 +5992,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6032,7 +6032,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6087,7 +6087,7 @@
         <v>107</v>
       </c>
       <c r="G8" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -6125,7 +6125,7 @@
         <v>102</v>
       </c>
       <c r="G10" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>63</v>
@@ -6163,7 +6163,7 @@
         <v>103</v>
       </c>
       <c r="G12" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
@@ -6201,7 +6201,7 @@
         <v>85</v>
       </c>
       <c r="G14" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>63</v>
@@ -6239,7 +6239,7 @@
         <v>108</v>
       </c>
       <c r="G16" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>63</v>
@@ -6277,7 +6277,7 @@
         <v>105</v>
       </c>
       <c r="G18" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>63</v>
@@ -6723,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6735,7 +6735,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6775,7 +6775,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6830,7 +6830,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>63</v>
@@ -6881,7 +6881,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
@@ -6932,7 +6932,7 @@
         <v>95</v>
       </c>
       <c r="G15" s="3">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>63</v>

--- a/アルバム更新・削除_単体テスト.xlsx
+++ b/アルバム更新・削除_単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7047A7-346F-4254-B91D-3663665D9BDE}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9218EBC-0138-4D33-A0FD-613C9C33B078}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アルバム更新画面" sheetId="5" r:id="rId1"/>
@@ -5566,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5775,10 +5775,10 @@
         <v>88</v>
       </c>
       <c r="G14" s="3">
-        <v>46016</v>
+        <v>46017</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -6723,7 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
